--- a/input/user_input_tests.xlsx
+++ b/input/user_input_tests.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marle\RunningProjects\FEM_RA2CE\ra2ce\ra2ce\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure_le\ra2ce\ra2ce\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4C322-F38E-464A-9ED2-3A7BC5C468B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3A3EB-2C0C-49F1-BA0A-A21567A8546E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E902DA2C-5FD6-4CAD-9EB8-A76F377A57E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E902DA2C-5FD6-4CAD-9EB8-A76F377A57E5}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="options" sheetId="2" r:id="rId2"/>
-    <sheet name="explanation" sheetId="3" r:id="rId3"/>
+    <sheet name="explanation" sheetId="3" r:id="rId2"/>
+    <sheet name="options" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="104">
   <si>
     <t>analysis</t>
   </si>
@@ -177,18 +176,6 @@
     <t>snapping_threshold</t>
   </si>
   <si>
-    <t>motorway, trunk, primary, secondary, tertiary</t>
-  </si>
-  <si>
-    <t>motorway, trunk, primary, secondary</t>
-  </si>
-  <si>
-    <t>motorway, trunk, primary</t>
-  </si>
-  <si>
-    <t>motorway, trunk</t>
-  </si>
-  <si>
     <t>motorway</t>
   </si>
   <si>
@@ -231,9 +218,6 @@
     <t>segmentation</t>
   </si>
   <si>
-    <t>&lt;add another option here&gt;</t>
-  </si>
-  <si>
     <t>You can define the size of the segments the road will be cut into. When nothing is filled in, this step will be skipped</t>
   </si>
   <si>
@@ -264,28 +248,106 @@
     <t>name_of_pbf</t>
   </si>
   <si>
-    <t>case_extent_myanmar_manday</t>
-  </si>
-  <si>
-    <t>waterdepth</t>
-  </si>
-  <si>
-    <t>meter</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
     <t>fid</t>
   </si>
   <si>
-    <t>merged_flood_week_31_mandalay.tif</t>
-  </si>
-  <si>
-    <t>test_myanmar</t>
+    <t>motorway,trunk,primary,secondary,tertiary</t>
+  </si>
+  <si>
+    <t>motorway,trunk,primary,secondary</t>
+  </si>
+  <si>
+    <t>motorway,trunk,primary</t>
+  </si>
+  <si>
+    <t>motorway,trunk</t>
+  </si>
+  <si>
+    <t>motorway,motorway_link,trunk,trunk_link,primary,primary_link,secondary,secondary_link,tertiary,tertiary_link</t>
+  </si>
+  <si>
+    <t>motorway,motorway_link,trunk,trunk_link,primary,primary_link,secondary,secondary_link</t>
+  </si>
+  <si>
+    <t>motorway,motorway_link,trunk,trunk_link,primary,primary_link</t>
+  </si>
+  <si>
+    <t>motorway,motorway_link,trunk,trunk_link</t>
+  </si>
+  <si>
+    <t>motorway,motorway_link</t>
+  </si>
+  <si>
+    <t>Den_Haag_netwerk.shp</t>
+  </si>
+  <si>
+    <t>motorway, motorway_link, trunk, trunk_link, primary, primary_link, secondary, secondary_link, tertiary, tertiary_link</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Den_Haag_buurten_points</t>
+  </si>
+  <si>
+    <t>water_depth</t>
+  </si>
+  <si>
+    <t>waterdiepte_den_haag3.tif</t>
+  </si>
+  <si>
+    <t>DH_comm_space</t>
+  </si>
+  <si>
+    <t>DH_edu</t>
+  </si>
+  <si>
+    <t>DH_food</t>
+  </si>
+  <si>
+    <t>DH_health</t>
+  </si>
+  <si>
+    <t>DH_mob</t>
+  </si>
+  <si>
+    <t>DH_night</t>
+  </si>
+  <si>
+    <t>DH_act_liv</t>
+  </si>
+  <si>
+    <t>DH_comm_space_drive</t>
+  </si>
+  <si>
+    <t>DH_act_liv_drive</t>
+  </si>
+  <si>
+    <t>DH_edu_drive</t>
+  </si>
+  <si>
+    <t>DH_food_drive</t>
+  </si>
+  <si>
+    <t>DH_health_drive</t>
+  </si>
+  <si>
+    <t>DH_mob_drive</t>
+  </si>
+  <si>
+    <t>DH_night_drive</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>den_haag_constrained_punten</t>
+  </si>
+  <si>
+    <t>DH_comm_space_drive_norm</t>
+  </si>
+  <si>
+    <t>DH_buurt_comm</t>
   </si>
 </sst>
 </file>
@@ -341,7 +403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -364,11 +426,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,6 +474,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,19 +495,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="options"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -748,36 +809,36 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="18.453125" customWidth="1"/>
-    <col min="15" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" customWidth="1"/>
-    <col min="18" max="18" width="20.6328125" customWidth="1"/>
-    <col min="19" max="19" width="16.90625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="16" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="17.90625" customWidth="1"/>
-    <col min="22" max="22" width="26.36328125" customWidth="1"/>
-    <col min="23" max="23" width="13.6328125" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -794,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -803,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -818,94 +879,84 @@
         <v>8</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="T1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="V1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="W1" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="E2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="19"/>
       <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="S2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,49 +968,49 @@
           <x14:formula1>
             <xm:f>options!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
+          <xm:sqref>B9:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D725D8C-87A9-4009-853D-1C43F6BFD1B9}">
+          <x14:formula1>
+            <xm:f>options!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>R9:R1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6BB6EF60-BAF9-428D-B5C4-8EF858760B90}">
+          <x14:formula1>
+            <xm:f>options!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L9:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F37B468-FC80-4253-AF94-8064268B20AC}">
+          <x14:formula1>
+            <xm:f>options!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>J9:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B14F2C85-AD67-4794-B3E8-7DE4537520AF}">
+          <x14:formula1>
+            <xm:f>options!$F$2:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>M9:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49CE237E-9A54-4C15-A1A1-5E22B2A25C3F}">
           <x14:formula1>
             <xm:f>options!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C1048576 C2</xm:sqref>
+          <xm:sqref>C9:C1048576 C2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB96EDCB-7778-4C24-A755-D3846759BEB7}">
           <x14:formula1>
             <xm:f>options!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D9:D1048576 D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6BB6EF60-BAF9-428D-B5C4-8EF858760B90}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B738E98-986C-4B32-87FD-8C705677A106}">
           <x14:formula1>
-            <xm:f>options!$E$2:$E$6</xm:f>
+            <xm:f>options!$F$2:$F$14</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D725D8C-87A9-4009-853D-1C43F6BFD1B9}">
-          <x14:formula1>
-            <xm:f>options!$G$2:$G$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>R3:R1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37956627-F8CC-4F06-8083-201D08419C46}">
-          <x14:formula1>
-            <xm:f>[user_input.xlsx]options!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>R2 B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F37B468-FC80-4253-AF94-8064268B20AC}">
-          <x14:formula1>
-            <xm:f>options!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B14F2C85-AD67-4794-B3E8-7DE4537520AF}">
-          <x14:formula1>
-            <xm:f>options!$F$2:$F$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>M2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -968,23 +1019,607 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB03C308-BA7F-4A52-B7FB-2322DB47837C}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8FA5B4-8351-441E-BC93-E5502E84268F}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="21" width="19.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="L5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="L6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="L7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="L8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U8" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="L9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="L10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="L13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7253C15-5FCA-4C78-B488-EDF8E785DA46}">
+          <x14:formula1>
+            <xm:f>'C:\Users\groen_fe\Downloads\[to_fill_in.xlsx]Options'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB96EDCB-7778-4C24-A755-D3846759BEB7}">
+          <x14:formula1>
+            <xm:f>options!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D11 D13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49CE237E-9A54-4C15-A1A1-5E22B2A25C3F}">
+          <x14:formula1>
+            <xm:f>options!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C11 C13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B738E98-986C-4B32-87FD-8C705677A106}">
+          <x14:formula1>
+            <xm:f>options!$F$2:$F$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>M5:M11 M13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB03C308-BA7F-4A52-B7FB-2322DB47837C}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,10 +1639,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1024,13 +1659,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1047,13 +1682,13 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1070,13 +1705,13 @@
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1085,11 +1720,11 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1098,223 +1733,51 @@
         <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8FA5B4-8351-441E-BC93-E5502E84268F}">
-  <dimension ref="A1:X3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.08984375" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
-    <col min="14" max="14" width="22.6328125" customWidth="1"/>
-    <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.81640625" customWidth="1"/>
-    <col min="18" max="18" width="19.453125" customWidth="1"/>
-    <col min="19" max="19" width="17.08984375" customWidth="1"/>
-    <col min="20" max="20" width="19.453125" customWidth="1"/>
-    <col min="21" max="21" width="19.36328125" customWidth="1"/>
-    <col min="22" max="22" width="17.1796875" customWidth="1"/>
-    <col min="23" max="23" width="16.81640625" customWidth="1"/>
-    <col min="24" max="24" width="16.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="87" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7253C15-5FCA-4C78-B488-EDF8E785DA46}">
-          <x14:formula1>
-            <xm:f>'C:\Users\groen_fe\Downloads\[to_fill_in.xlsx]Options'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>